--- a/GameMasterGuide/Data/Hogwarts/Rooms.xlsx
+++ b/GameMasterGuide/Data/Hogwarts/Rooms.xlsx
@@ -11,8 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$E$43</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$E$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$B$1:$E$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -41,12 +42,18 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Viewing Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astronomy Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A large flat platform atop the \imp{Astronomy Tower}, decorated with various bits of telescope apparatus and astrometic devices. It was from this location that \imp{Albus Dumbledore} fell to his death in 1997.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Staff Quarters</t>
   </si>
   <si>
-    <t xml:space="preserve">Astronomy Tower</t>
-  </si>
-  <si>
     <t xml:space="preserve">First – Sixth floors</t>
   </si>
   <si>
@@ -62,12 +69,6 @@
     <t xml:space="preserve">Unusualy arranged classrooms (which take up a surprising amount of space), the astronomy classrooms are arranged in circles with the desks facing outwards – to best give students a view from the expansive windows and into the starry sky. </t>
   </si>
   <si>
-    <t xml:space="preserve">Viewing Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A large flat platform atop the \imp{Astronomy Tower}, decorated with various bits of telescope apparatus and astrometic devices. It was from this location that \imp{Albus Dumbledore} fell to his death in 1997.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transfiguration Courtyard</t>
   </si>
   <si>
@@ -81,6 +82,15 @@
   </si>
   <si>
     <t xml:space="preserve">On some rare occaisions, \imp{Herbology} classes take a veer into the theoretical, rather than the practical. When this happens, they use these classrooms, which overlook the greenhouses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Floors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The \imp{Dark Tower} is an empty and disused tower which stands above the \imp{Barbican}. The tower was used in years gone by as a prison - \imp{Sirius Black} was imprisoned here, as was \imp{Barty Crouch Jnr} – though in modern times it has, at least officially, been relegated to storage. </t>
   </si>
   <si>
     <t xml:space="preserve">Care of Magical Creatures Classroom</t>
@@ -90,15 +100,6 @@
 Some of these classrooms have also been converted into habitats for some of the creatures whoa re kept as specimens for these classes, but who do not enjoy living outdoors. </t>
   </si>
   <si>
-    <t xml:space="preserve">Dark Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Floors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The \imp{Dark Tower} is an empty and disused tower which stands above the \imp{Barbican}. The tower was used in years gone by as a prison - \imp{Sirius Black} was imprisoned here, as was \imp{Barty Crouch Jnr} – though in modern times it has, at least officially, been relegated to storage. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Study Rooms</t>
   </si>
   <si>
@@ -132,10 +133,10 @@
     <t xml:space="preserve">The domain of \imp{Madame Pomfrey}, the \imp{Hospital Wing} </t>
   </si>
   <si>
-    <t xml:space="preserve">Trophy Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A large room dedicated to the trophies and prestigious awards given to students across the years. In the very centre of the room lies the \imp{House Cup}, adorned in the colours of the current reigning champions. </t>
+    <t xml:space="preserve">Armoury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A large room lined with suits of armour and weapons – seemingly mostly decorative. If the castle is in danger, these statues spring into life and will defend the students. </t>
   </si>
   <si>
     <t xml:space="preserve">Owlery</t>
@@ -214,82 +215,76 @@
     <t xml:space="preserve">Headmaster’s Tower</t>
   </si>
   <si>
+    <t xml:space="preserve">Entrance Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viaduct Courtyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part of the main entrance to \imp{Hogwarts Castle}, the \imp{Viaduct Courtyard} is the first thing most visitors will see, as it connects the \imp{Viaduct} which crosses the \imp{Great Lake} to the \imp{Entrance Hall}. The \imp{Boathouse}, where first year students arrive, is accessed through a steep staircase from this courtyard. The \imp{Viaduct Courtyard} was the site of the final battle between \imp{Harry Potter} and \imp{Lord Voldemort}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock Tower Courtyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causeway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long, narrow bridge which connects the \imp{Viaduct Courtyard} to the \imp{Astronomy Tower}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caretaker’s Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defence Against the Dark Arts Classrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of Magic Classrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charms Classroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House-Heads Offices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charms Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defence Against the Dark Arts Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muggle Studies Classroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potions Office (Secondary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not all potions masters appreciate the constant darkness of the \imp{Dungeons}, even if they are safe for experimentation. \imp{Horace Slughorn} started the tradition of having a second office above ground – something which has continued to this day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient Runes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arithmancy Classroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room of Requirement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kitchens</t>
   </si>
   <si>
-    <t xml:space="preserve">Keep</t>
-  </si>
-  <si>
     <t xml:space="preserve">Basement</t>
   </si>
   <si>
     <t xml:space="preserve">Hufflepuff Common Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrance Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viaduct Courtyard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part of the main entrance to \imp{Hogwarts Castle}, the \imp{Viaduct Courtyard} is the first thing most visitors will see, as it connects the \imp{Viaduct} which crosses the \imp{Great Lake} to the \imp{Entrance Hall}. The \imp{Boathouse}, where first year students arrive, is accessed through a steep staircase from this courtyard. The \imp{Viaduct Courtyard} was the site of the final battle between \imp{Harry Potter} and \imp{Lord Voldemort}. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clock Tower Courtyard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Causeway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A long, narrow bridge which connects the \imp{Viaduct Courtyard} to the \imp{Astronomy Tower}. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caretaker’s Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defence Against the Dark Arts Classrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History of Magic Classrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charms Classroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House-Heads Offices </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armoury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A large room lined with suits of armour and weapons – seemingly mostly decorative. If the castle is in danger, these statues spring into life and will defend the students. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charms Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defence Against the Dark Arts Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muggle Studies Classroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potions Office (Secondary)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not all potions masters appreciate the constant darkness of the \imp{Dungeons}, even if they are safe for experimentation. \imp{Horace Slughorn} started the tradition of having a second office above ground – something which has continued to this day. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient Runes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmancy Classroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room of Requirement</t>
   </si>
   <si>
     <t xml:space="preserve">Grand Staircase</t>
@@ -315,6 +310,12 @@
   </si>
   <si>
     <t xml:space="preserve">Recuperative Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophy Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A large room dedicated to the trophies and prestigious awards given to students across the years. In the very centre of the room lies the \imp{House Cup}, adorned in the colours of the current reigning champions. </t>
   </si>
   <si>
     <t xml:space="preserve">Divination Classroom</t>
@@ -414,12 +415,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -429,24 +430,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="70.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -476,28 +476,28 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,13 +505,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>9</v>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -562,7 +562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
@@ -572,24 +572,24 @@
       <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>9</v>
       </c>
@@ -711,7 +711,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>36</v>
@@ -899,8 +899,8 @@
       <c r="C32" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>64</v>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,27 +908,30 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>4</v>
       </c>
@@ -987,52 +990,49 @@
         <v>63</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,72 +1040,72 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,30 +1113,27 @@
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>6</v>
+      <c r="D49" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,30 +1155,33 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>21</v>
       </c>
@@ -1189,13 +1189,10 @@
         <v>88</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="1" t="s">
         <v>89</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,10 +1203,10 @@
         <v>90</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,13 +1214,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,13 +1228,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,27 +1242,30 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,7 +1276,7 @@
         <v>96</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>5</v>
@@ -1290,14 +1290,14 @@
         <v>97</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E59"/>
+  <autoFilter ref="B1:E59"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
